--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value68.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value68.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9001752583781473</v>
+        <v>1.267161011695862</v>
       </c>
       <c r="B1">
-        <v>1.755462843313255</v>
+        <v>1.682010293006897</v>
       </c>
       <c r="C1">
-        <v>2.039044565444219</v>
+        <v>1.421332597732544</v>
       </c>
       <c r="D1">
-        <v>2.355070749955404</v>
+        <v>2.067212343215942</v>
       </c>
       <c r="E1">
-        <v>2.316103396796365</v>
+        <v>3.324020624160767</v>
       </c>
     </row>
   </sheetData>
